--- a/src/main/processing/Any2Json/examples/ReadIntelliTable2/data/Book1.xlsx
+++ b/src/main/processing/Any2Json/examples/ReadIntelliTable2/data/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRU_SG1\Projects\Processing\libraries\Any2Json\examples\ReadIntelliTable2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRU_SG1\Projects\Any2Json\src\main\processing\Any2Json\examples\ReadIntelliTable2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5483418F-F045-4121-806B-0EB30A16222C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B5C3CE-CCB8-4224-B940-71257C9BCEAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1725B7E8-4632-49E5-8EBE-7E29775D2CA9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="181">
   <si>
     <t>a</t>
   </si>
@@ -776,15 +776,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -792,6 +783,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1108,24 +1108,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D780D69-5FB2-48CC-9A0C-B58C2902AE10}">
-  <dimension ref="B2:V71"/>
+  <dimension ref="B2:X90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:V60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N13" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="12">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C2" s="16">
         <v>43617</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
@@ -1193,88 +1193,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N7" s="13" t="s">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N8" s="14" t="s">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-    </row>
-    <row r="9" spans="2:22" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="N9" s="15" t="s">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+    </row>
+    <row r="9" spans="2:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="P9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="15" t="s">
+      <c r="Q9" s="13"/>
+      <c r="R9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="14"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="2" t="s">
+      <c r="V9" s="14"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N10" s="9" t="s">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="9" t="s">
+      <c r="Q10" s="10"/>
+      <c r="R10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="11"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V10" s="11"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>116</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="P11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="9" t="s">
+      <c r="Q11" s="10"/>
+      <c r="R11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="9" t="s">
+      <c r="S11" s="11"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V11" s="11"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="G12" s="5"/>
@@ -1282,25 +1282,25 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="N12" s="9" t="s">
+      <c r="P12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="9" t="s">
+      <c r="Q12" s="10"/>
+      <c r="R12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="11"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="3">
+      <c r="V12" s="11"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="51" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" ht="51" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>117</v>
       </c>
@@ -1334,25 +1334,25 @@
       <c r="L13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="P13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="9" t="s">
+      <c r="Q13" s="10"/>
+      <c r="R13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="11"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="3">
+      <c r="V13" s="11"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <f>ROW()-3</f>
         <v>11</v>
@@ -1385,25 +1385,25 @@
         <v>2</v>
       </c>
       <c r="L14" s="8"/>
-      <c r="N14" s="9" t="s">
+      <c r="P14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="9" t="s">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="11"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V14" s="11"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <f t="shared" ref="B15:B34" si="0">ROW()-3</f>
         <v>12</v>
@@ -1436,25 +1436,25 @@
         <v>1</v>
       </c>
       <c r="L15" s="8"/>
-      <c r="N15" s="9" t="s">
+      <c r="P15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="9" t="s">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="9" t="s">
+      <c r="S15" s="11"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="11"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="3">
+      <c r="V15" s="11"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1487,25 +1487,25 @@
         <v>3</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="N16" s="9" t="s">
+      <c r="P16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="9" t="s">
+      <c r="Q16" s="10"/>
+      <c r="R16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="9" t="s">
+      <c r="S16" s="11"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="3">
+      <c r="V16" s="11"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1538,25 +1538,25 @@
         <v>4</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="N17" s="9" t="s">
+      <c r="P17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="10"/>
-      <c r="P17" s="9" t="s">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="9" t="s">
+      <c r="S17" s="11"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="3">
+      <c r="V17" s="11"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1589,25 +1589,25 @@
         <v>1</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="N18" s="9" t="s">
+      <c r="P18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="9" t="s">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="11"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="11"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V18" s="11"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1640,25 +1640,25 @@
         <v>1</v>
       </c>
       <c r="L19" s="8"/>
-      <c r="N19" s="9" t="s">
+      <c r="P19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="9" t="s">
+      <c r="Q19" s="10"/>
+      <c r="R19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="9" t="s">
+      <c r="S19" s="11"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="T19" s="11"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="3">
+      <c r="V19" s="11"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1691,25 +1691,25 @@
         <v>1</v>
       </c>
       <c r="L20" s="8"/>
-      <c r="N20" s="9" t="s">
+      <c r="P20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="9" t="s">
+      <c r="Q20" s="10"/>
+      <c r="R20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="9" t="s">
+      <c r="S20" s="11"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="11"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1742,25 +1742,25 @@
         <v>1</v>
       </c>
       <c r="L21" s="8"/>
-      <c r="N21" s="9" t="s">
+      <c r="P21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="9" t="s">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="9" t="s">
+      <c r="S21" s="11"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="T21" s="11"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V21" s="11"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1793,25 +1793,25 @@
         <v>4</v>
       </c>
       <c r="L22" s="8"/>
-      <c r="N22" s="9" t="s">
+      <c r="P22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="9" t="s">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="11"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="T22" s="11"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V22" s="11"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1844,25 +1844,25 @@
         <v>1</v>
       </c>
       <c r="L23" s="8"/>
-      <c r="N23" s="9" t="s">
+      <c r="P23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="9" t="s">
+      <c r="Q23" s="10"/>
+      <c r="R23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="9" t="s">
+      <c r="S23" s="11"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T23" s="11"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="3">
+      <c r="V23" s="11"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1895,25 +1895,25 @@
         <v>3</v>
       </c>
       <c r="L24" s="8"/>
-      <c r="N24" s="9" t="s">
+      <c r="P24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="O24" s="10"/>
-      <c r="P24" s="9" t="s">
+      <c r="Q24" s="10"/>
+      <c r="R24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="9" t="s">
+      <c r="S24" s="11"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="T24" s="11"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V24" s="11"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1946,21 +1946,21 @@
         <v>1</v>
       </c>
       <c r="L25" s="8"/>
-      <c r="N25" s="9" t="s">
+      <c r="P25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="3">
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1993,11 +1993,11 @@
         <v>2</v>
       </c>
       <c r="L26" s="8"/>
-      <c r="N26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2030,17 +2030,17 @@
         <v>2</v>
       </c>
       <c r="L27" s="8"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2073,17 +2073,17 @@
         <v>1</v>
       </c>
       <c r="L28" s="8"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P28" s="12"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2116,17 +2116,17 @@
         <v>2</v>
       </c>
       <c r="L29" s="8"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="10"/>
       <c r="P29" s="9"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q29" s="10"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2159,17 +2159,17 @@
         <v>1</v>
       </c>
       <c r="L30" s="8"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="10"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q30" s="10"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2202,17 +2202,17 @@
         <v>1</v>
       </c>
       <c r="L31" s="8"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="10"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q31" s="10"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2245,17 +2245,17 @@
         <v>1</v>
       </c>
       <c r="L32" s="8"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="10"/>
       <c r="P32" s="9"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q32" s="10"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2288,17 +2288,17 @@
         <v>1</v>
       </c>
       <c r="L33" s="8"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="10"/>
       <c r="P33" s="9"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="Q33" s="10"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2331,100 +2331,142 @@
         <v>2</v>
       </c>
       <c r="L34" s="8"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N35" s="9"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N36" s="9"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="N37" s="9"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C38" s="14" t="s">
+      <c r="P34" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="2:22" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C39" s="15" t="s">
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+    </row>
+    <row r="35" spans="2:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="P35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="15" t="s">
+      <c r="Q35" s="13"/>
+      <c r="R35" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="15" t="s">
+      <c r="S35" s="14"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="16"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S36" s="11"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V36" s="11"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S37" s="11"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V37" s="11"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C38" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="P38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S38" s="11"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V38" s="11"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="13"/>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N39" s="9"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S39" s="11"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V39" s="11"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C40" s="9" t="s">
         <v>10</v>
       </c>
@@ -2442,17 +2484,25 @@
       <c r="K40" s="3">
         <v>1</v>
       </c>
-      <c r="N40" s="9"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S40" s="11"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="V40" s="11"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2470,17 +2520,25 @@
       <c r="K41" s="3">
         <v>2</v>
       </c>
-      <c r="N41" s="9"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="3"/>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S41" s="11"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="V41" s="11"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C42" s="9" t="s">
         <v>16</v>
       </c>
@@ -2498,17 +2556,25 @@
       <c r="K42" s="3">
         <v>2</v>
       </c>
-      <c r="N42" s="9"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="3"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="S42" s="11"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="V42" s="11"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C43" s="9" t="s">
         <v>19</v>
       </c>
@@ -2526,17 +2592,25 @@
       <c r="K43" s="3">
         <v>1</v>
       </c>
-      <c r="N43" s="9"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="3"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="S43" s="11"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V43" s="11"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C44" s="9" t="s">
         <v>22</v>
       </c>
@@ -2554,17 +2628,25 @@
       <c r="K44" s="3">
         <v>1</v>
       </c>
-      <c r="N44" s="9"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="3"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P44" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S44" s="11"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V44" s="11"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C45" s="9" t="s">
         <v>25</v>
       </c>
@@ -2582,17 +2664,25 @@
       <c r="K45" s="3">
         <v>1</v>
       </c>
-      <c r="N45" s="9"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="3"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="S45" s="11"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="V45" s="11"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
         <v>28</v>
       </c>
@@ -2610,17 +2700,25 @@
       <c r="K46" s="3">
         <v>1</v>
       </c>
-      <c r="N46" s="9"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="3"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S46" s="11"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="V46" s="11"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C47" s="9" t="s">
         <v>31</v>
       </c>
@@ -2638,17 +2736,25 @@
       <c r="K47" s="3">
         <v>1</v>
       </c>
-      <c r="N47" s="9"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="3"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="P47" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S47" s="11"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="V47" s="11"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C48" s="9" t="s">
         <v>34</v>
       </c>
@@ -2666,17 +2772,25 @@
       <c r="K48" s="3">
         <v>2</v>
       </c>
-      <c r="N48" s="9"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="3"/>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P48" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S48" s="11"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V48" s="11"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C49" s="9" t="s">
         <v>37</v>
       </c>
@@ -2694,17 +2808,25 @@
       <c r="K49" s="3">
         <v>1</v>
       </c>
-      <c r="N49" s="9"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P49" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="11"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="V49" s="11"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C50" s="9" t="s">
         <v>40</v>
       </c>
@@ -2722,17 +2844,25 @@
       <c r="K50" s="3">
         <v>2</v>
       </c>
-      <c r="N50" s="9"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="3"/>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P50" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S50" s="11"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V50" s="11"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C51" s="9" t="s">
         <v>43</v>
       </c>
@@ -2750,17 +2880,25 @@
       <c r="K51" s="3">
         <v>2</v>
       </c>
-      <c r="N51" s="9"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="3"/>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P51" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S51" s="11"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V51" s="11"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C52" s="9" t="s">
         <v>46</v>
       </c>
@@ -2778,17 +2916,25 @@
       <c r="K52" s="3">
         <v>5</v>
       </c>
-      <c r="N52" s="9"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="3"/>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P52" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S52" s="11"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V52" s="11"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C53" s="9" t="s">
         <v>49</v>
       </c>
@@ -2806,17 +2952,25 @@
       <c r="K53" s="3">
         <v>1</v>
       </c>
-      <c r="N53" s="9"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="3"/>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P53" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S53" s="11"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="V53" s="11"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C54" s="9" t="s">
         <v>52</v>
       </c>
@@ -2834,17 +2988,25 @@
       <c r="K54" s="3">
         <v>3</v>
       </c>
-      <c r="N54" s="9"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="3"/>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P54" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" s="11"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="V54" s="11"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C55" s="9" t="s">
         <v>80</v>
       </c>
@@ -2862,17 +3024,25 @@
       <c r="K55" s="3">
         <v>1</v>
       </c>
-      <c r="N55" s="9"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P55" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S55" s="11"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="V55" s="11"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C56" s="9" t="s">
         <v>83</v>
       </c>
@@ -2890,17 +3060,25 @@
       <c r="K56" s="3">
         <v>1</v>
       </c>
-      <c r="N56" s="9"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P56" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S56" s="11"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V56" s="11"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C57" s="9" t="s">
         <v>84</v>
       </c>
@@ -2918,17 +3096,25 @@
       <c r="K57" s="3">
         <v>1</v>
       </c>
-      <c r="N57" s="9"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="3"/>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P57" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S57" s="11"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V57" s="11"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C58" s="9" t="s">
         <v>87</v>
       </c>
@@ -2946,17 +3132,25 @@
       <c r="K58" s="3">
         <v>2</v>
       </c>
-      <c r="N58" s="9"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="3"/>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P58" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S58" s="11"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="V58" s="11"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C59" s="9" t="s">
         <v>88</v>
       </c>
@@ -2974,17 +3168,25 @@
       <c r="K59" s="3">
         <v>1</v>
       </c>
-      <c r="N59" s="9"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="3"/>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P59" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="S59" s="11"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="V59" s="11"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C60" s="9" t="s">
         <v>91</v>
       </c>
@@ -3002,17 +3204,25 @@
       <c r="K60" s="3">
         <v>1</v>
       </c>
-      <c r="N60" s="9"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
+      <c r="P60" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="3"/>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="T60" s="10"/>
+      <c r="U60" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V60" s="11"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C61" s="9" t="s">
         <v>94</v>
       </c>
@@ -3030,8 +3240,25 @@
       <c r="K61" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P61" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="S61" s="11"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="V61" s="11"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C62" s="9" t="s">
         <v>95</v>
       </c>
@@ -3049,8 +3276,25 @@
       <c r="K62" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P62" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S62" s="11"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V62" s="11"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C63" s="9" t="s">
         <v>98</v>
       </c>
@@ -3068,8 +3312,25 @@
       <c r="K63" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="P63" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S63" s="11"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="V63" s="11"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C64" s="9" t="s">
         <v>101</v>
       </c>
@@ -3087,8 +3348,25 @@
       <c r="K64" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P64" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="S64" s="11"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="V64" s="11"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C65" s="9" t="s">
         <v>102</v>
       </c>
@@ -3106,8 +3384,25 @@
       <c r="K65" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P65" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="S65" s="11"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="V65" s="11"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C66" s="9" t="s">
         <v>105</v>
       </c>
@@ -3125,8 +3420,25 @@
       <c r="K66" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P66" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S66" s="11"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="V66" s="11"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C67" s="9" t="s">
         <v>106</v>
       </c>
@@ -3144,8 +3456,21 @@
       <c r="K67" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P67" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C68" s="9" t="s">
         <v>107</v>
       </c>
@@ -3164,7 +3489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C69" s="9" t="s">
         <v>110</v>
       </c>
@@ -3183,7 +3508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C70" s="9" t="s">
         <v>113</v>
       </c>
@@ -3202,7 +3527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C71" s="9" t="s">
         <v>55</v>
       </c>
@@ -3217,243 +3542,422 @@
         <v>58</v>
       </c>
     </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C72" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C73" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+    </row>
+    <row r="74" spans="3:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C74" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="14"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="14"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C75" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="11"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="11"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="11"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="11"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C79" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="E79" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" s="11"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" s="11"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I81" s="11"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C82" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="11"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" s="11"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C83" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="11"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I83" s="11"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C84" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="11"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I84" s="11"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C85" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="11"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I85" s="11"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C86" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I86" s="11"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C87" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" s="11"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C88" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" s="11"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C89" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I89" s="11"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C90" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="3">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="248">
-    <mergeCell ref="N60:U60"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="N25:U25"/>
-    <mergeCell ref="N27:V27"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
+  <mergeCells count="318">
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="P67:W67"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="P34:X34"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="U64:W64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:K73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="E70:G70"/>
     <mergeCell ref="H70:J70"/>
@@ -3467,6 +3971,237 @@
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="E69:G69"/>
     <mergeCell ref="H69:J69"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="P25:W25"/>
+    <mergeCell ref="P27:X27"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="U57:W57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/processing/Any2Json/examples/ReadIntelliTable2/data/Book1.xlsx
+++ b/src/main/processing/Any2Json/examples/ReadIntelliTable2/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRU_SG1\Projects\Any2Json\src\main\processing\Any2Json\examples\ReadIntelliTable2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B5C3CE-CCB8-4224-B940-71257C9BCEAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D6242B-3523-4E6C-A8C4-10E0E7829C57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1725B7E8-4632-49E5-8EBE-7E29775D2CA9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="181">
   <si>
     <t>a</t>
   </si>
@@ -745,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,13 +767,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,14 +794,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,22 +1111,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D780D69-5FB2-48CC-9A0C-B58C2902AE10}">
-  <dimension ref="B2:X90"/>
+  <dimension ref="B2:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N13" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C2" s="16">
+      <c r="C2" s="18">
         <v>43617</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -1194,60 +1197,60 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
     </row>
     <row r="9" spans="2:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="12" t="s">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="12" t="s">
+      <c r="S9" s="17"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="13"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="16"/>
       <c r="X9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="9" t="s">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="S10" s="11"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="9" t="s">
+      <c r="T10" s="12"/>
+      <c r="U10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="V10" s="11"/>
-      <c r="W10" s="10"/>
+      <c r="W10" s="12"/>
       <c r="X10" s="3">
         <v>1</v>
       </c>
@@ -1256,20 +1259,20 @@
       <c r="B11" t="s">
         <v>116</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="9" t="s">
+      <c r="Q11" s="12"/>
+      <c r="R11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="S11" s="11"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="9" t="s">
+      <c r="T11" s="12"/>
+      <c r="U11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="V11" s="11"/>
-      <c r="W11" s="10"/>
+      <c r="W11" s="12"/>
       <c r="X11" s="3">
         <v>1</v>
       </c>
@@ -1282,20 +1285,20 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="9" t="s">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="S12" s="11"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="9" t="s">
+      <c r="T12" s="12"/>
+      <c r="U12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="11"/>
-      <c r="W12" s="10"/>
+      <c r="W12" s="12"/>
       <c r="X12" s="3">
         <v>4</v>
       </c>
@@ -1334,20 +1337,20 @@
       <c r="L13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="9" t="s">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="S13" s="11"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="9" t="s">
+      <c r="T13" s="12"/>
+      <c r="U13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="V13" s="11"/>
-      <c r="W13" s="10"/>
+      <c r="W13" s="12"/>
       <c r="X13" s="3">
         <v>2</v>
       </c>
@@ -1385,20 +1388,20 @@
         <v>2</v>
       </c>
       <c r="L14" s="8"/>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="9" t="s">
+      <c r="Q14" s="12"/>
+      <c r="R14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="S14" s="11"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="9" t="s">
+      <c r="T14" s="12"/>
+      <c r="U14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="V14" s="11"/>
-      <c r="W14" s="10"/>
+      <c r="W14" s="12"/>
       <c r="X14" s="3">
         <v>1</v>
       </c>
@@ -1436,20 +1439,20 @@
         <v>1</v>
       </c>
       <c r="L15" s="8"/>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="9" t="s">
+      <c r="Q15" s="12"/>
+      <c r="R15" s="10" t="s">
         <v>26</v>
       </c>
       <c r="S15" s="11"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="9" t="s">
+      <c r="T15" s="12"/>
+      <c r="U15" s="10" t="s">
         <v>27</v>
       </c>
       <c r="V15" s="11"/>
-      <c r="W15" s="10"/>
+      <c r="W15" s="12"/>
       <c r="X15" s="3">
         <v>4</v>
       </c>
@@ -1487,20 +1490,20 @@
         <v>3</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="9" t="s">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="10" t="s">
         <v>29</v>
       </c>
       <c r="S16" s="11"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="9" t="s">
+      <c r="T16" s="12"/>
+      <c r="U16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="V16" s="11"/>
-      <c r="W16" s="10"/>
+      <c r="W16" s="12"/>
       <c r="X16" s="3">
         <v>4</v>
       </c>
@@ -1538,20 +1541,20 @@
         <v>4</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="9" t="s">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S17" s="11"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="9" t="s">
+      <c r="T17" s="12"/>
+      <c r="U17" s="10" t="s">
         <v>33</v>
       </c>
       <c r="V17" s="11"/>
-      <c r="W17" s="10"/>
+      <c r="W17" s="12"/>
       <c r="X17" s="3">
         <v>2</v>
       </c>
@@ -1589,20 +1592,20 @@
         <v>1</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="9" t="s">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="10" t="s">
         <v>35</v>
       </c>
       <c r="S18" s="11"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="9" t="s">
+      <c r="T18" s="12"/>
+      <c r="U18" s="10" t="s">
         <v>36</v>
       </c>
       <c r="V18" s="11"/>
-      <c r="W18" s="10"/>
+      <c r="W18" s="12"/>
       <c r="X18" s="3">
         <v>1</v>
       </c>
@@ -1640,20 +1643,20 @@
         <v>1</v>
       </c>
       <c r="L19" s="8"/>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="9" t="s">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S19" s="11"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="9" t="s">
+      <c r="T19" s="12"/>
+      <c r="U19" s="10" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="11"/>
-      <c r="W19" s="10"/>
+      <c r="W19" s="12"/>
       <c r="X19" s="3">
         <v>2</v>
       </c>
@@ -1691,20 +1694,20 @@
         <v>1</v>
       </c>
       <c r="L20" s="8"/>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="9" t="s">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="10" t="s">
         <v>41</v>
       </c>
       <c r="S20" s="11"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="9" t="s">
+      <c r="T20" s="12"/>
+      <c r="U20" s="10" t="s">
         <v>42</v>
       </c>
       <c r="V20" s="11"/>
-      <c r="W20" s="10"/>
+      <c r="W20" s="12"/>
       <c r="X20" s="3">
         <v>1</v>
       </c>
@@ -1742,20 +1745,20 @@
         <v>1</v>
       </c>
       <c r="L21" s="8"/>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="9" t="s">
+      <c r="Q21" s="12"/>
+      <c r="R21" s="10" t="s">
         <v>44</v>
       </c>
       <c r="S21" s="11"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="9" t="s">
+      <c r="T21" s="12"/>
+      <c r="U21" s="10" t="s">
         <v>45</v>
       </c>
       <c r="V21" s="11"/>
-      <c r="W21" s="10"/>
+      <c r="W21" s="12"/>
       <c r="X21" s="3">
         <v>1</v>
       </c>
@@ -1793,20 +1796,20 @@
         <v>4</v>
       </c>
       <c r="L22" s="8"/>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="9" t="s">
+      <c r="Q22" s="12"/>
+      <c r="R22" s="10" t="s">
         <v>47</v>
       </c>
       <c r="S22" s="11"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="9" t="s">
+      <c r="T22" s="12"/>
+      <c r="U22" s="10" t="s">
         <v>48</v>
       </c>
       <c r="V22" s="11"/>
-      <c r="W22" s="10"/>
+      <c r="W22" s="12"/>
       <c r="X22" s="3">
         <v>1</v>
       </c>
@@ -1844,20 +1847,20 @@
         <v>1</v>
       </c>
       <c r="L23" s="8"/>
-      <c r="P23" s="9" t="s">
+      <c r="P23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="9" t="s">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="10" t="s">
         <v>50</v>
       </c>
       <c r="S23" s="11"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="9" t="s">
+      <c r="T23" s="12"/>
+      <c r="U23" s="10" t="s">
         <v>51</v>
       </c>
       <c r="V23" s="11"/>
-      <c r="W23" s="10"/>
+      <c r="W23" s="12"/>
       <c r="X23" s="3">
         <v>8</v>
       </c>
@@ -1895,20 +1898,20 @@
         <v>3</v>
       </c>
       <c r="L24" s="8"/>
-      <c r="P24" s="9" t="s">
+      <c r="P24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="9" t="s">
+      <c r="Q24" s="12"/>
+      <c r="R24" s="10" t="s">
         <v>53</v>
       </c>
       <c r="S24" s="11"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="9" t="s">
+      <c r="T24" s="12"/>
+      <c r="U24" s="10" t="s">
         <v>54</v>
       </c>
       <c r="V24" s="11"/>
-      <c r="W24" s="10"/>
+      <c r="W24" s="12"/>
       <c r="X24" s="3">
         <v>1</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="8"/>
-      <c r="P25" s="9" t="s">
+      <c r="P25" s="10" t="s">
         <v>55</v>
       </c>
       <c r="Q25" s="11"/>
@@ -1955,7 +1958,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="10"/>
+      <c r="W25" s="12"/>
       <c r="X25" s="3">
         <v>34</v>
       </c>
@@ -2030,15 +2033,15 @@
         <v>2</v>
       </c>
       <c r="L27" s="8"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
@@ -2073,14 +2076,14 @@
         <v>1</v>
       </c>
       <c r="L28" s="8"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="13"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="16"/>
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
@@ -2116,14 +2119,14 @@
         <v>2</v>
       </c>
       <c r="L29" s="8"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="9"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="10"/>
       <c r="S29" s="11"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="9"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="10"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="10"/>
+      <c r="W29" s="12"/>
       <c r="X29" s="3"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
@@ -2159,14 +2162,14 @@
         <v>1</v>
       </c>
       <c r="L30" s="8"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="9"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="10"/>
       <c r="S30" s="11"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="9"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="10"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="10"/>
+      <c r="W30" s="12"/>
       <c r="X30" s="3"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
@@ -2202,14 +2205,14 @@
         <v>1</v>
       </c>
       <c r="L31" s="8"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="9"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="10"/>
       <c r="S31" s="11"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="9"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="10"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="10"/>
+      <c r="W31" s="12"/>
       <c r="X31" s="3"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
@@ -2245,14 +2248,14 @@
         <v>1</v>
       </c>
       <c r="L32" s="8"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="9"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="10"/>
       <c r="S32" s="11"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="9"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="10"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="10"/>
+      <c r="W32" s="12"/>
       <c r="X32" s="3"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
@@ -2288,14 +2291,14 @@
         <v>1</v>
       </c>
       <c r="L33" s="8"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="9"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="10"/>
       <c r="S33" s="11"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="9"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="10"/>
       <c r="V33" s="11"/>
-      <c r="W33" s="10"/>
+      <c r="W33" s="12"/>
       <c r="X33" s="3"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
@@ -2331,1132 +2334,1132 @@
         <v>2</v>
       </c>
       <c r="L34" s="8"/>
-      <c r="P34" s="15" t="s">
+      <c r="P34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
     </row>
     <row r="35" spans="2:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="P35" s="12" t="s">
+      <c r="P35" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="12" t="s">
+      <c r="Q35" s="16"/>
+      <c r="R35" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S35" s="14"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="12" t="s">
+      <c r="S35" s="17"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="V35" s="14"/>
-      <c r="W35" s="13"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="16"/>
       <c r="X35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P36" s="9" t="s">
+      <c r="P36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="9" t="s">
+      <c r="Q36" s="12"/>
+      <c r="R36" s="10" t="s">
         <v>58</v>
       </c>
       <c r="S36" s="11"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="9" t="s">
+      <c r="T36" s="12"/>
+      <c r="U36" s="10" t="s">
         <v>59</v>
       </c>
       <c r="V36" s="11"/>
-      <c r="W36" s="10"/>
+      <c r="W36" s="12"/>
       <c r="X36" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="P37" s="9" t="s">
+      <c r="P37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="9" t="s">
+      <c r="Q37" s="12"/>
+      <c r="R37" s="10" t="s">
         <v>60</v>
       </c>
       <c r="S37" s="11"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="9" t="s">
+      <c r="T37" s="12"/>
+      <c r="U37" s="10" t="s">
         <v>61</v>
       </c>
       <c r="V37" s="11"/>
-      <c r="W37" s="10"/>
+      <c r="W37" s="12"/>
       <c r="X37" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="P38" s="9" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="P38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="9" t="s">
+      <c r="Q38" s="12"/>
+      <c r="R38" s="10" t="s">
         <v>62</v>
       </c>
       <c r="S38" s="11"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="9" t="s">
+      <c r="T38" s="12"/>
+      <c r="U38" s="10" t="s">
         <v>63</v>
       </c>
       <c r="V38" s="11"/>
-      <c r="W38" s="10"/>
+      <c r="W38" s="12"/>
       <c r="X38" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="12" t="s">
+      <c r="F39" s="17"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="13"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="16"/>
       <c r="K39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P39" s="9" t="s">
+      <c r="P39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="9" t="s">
+      <c r="Q39" s="12"/>
+      <c r="R39" s="10" t="s">
         <v>64</v>
       </c>
       <c r="S39" s="11"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="9" t="s">
+      <c r="T39" s="12"/>
+      <c r="U39" s="10" t="s">
         <v>65</v>
       </c>
       <c r="V39" s="11"/>
-      <c r="W39" s="10"/>
+      <c r="W39" s="12"/>
       <c r="X39" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="12"/>
+      <c r="E40" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F40" s="11"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="9" t="s">
+      <c r="G40" s="12"/>
+      <c r="H40" s="10" t="s">
         <v>59</v>
       </c>
       <c r="I40" s="11"/>
-      <c r="J40" s="10"/>
+      <c r="J40" s="12"/>
       <c r="K40" s="3">
         <v>1</v>
       </c>
-      <c r="P40" s="9" t="s">
+      <c r="P40" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="9" t="s">
+      <c r="Q40" s="12"/>
+      <c r="R40" s="10" t="s">
         <v>66</v>
       </c>
       <c r="S40" s="11"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="9" t="s">
+      <c r="T40" s="12"/>
+      <c r="U40" s="10" t="s">
         <v>67</v>
       </c>
       <c r="V40" s="11"/>
-      <c r="W40" s="10"/>
+      <c r="W40" s="12"/>
       <c r="X40" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="12"/>
+      <c r="E41" s="10" t="s">
         <v>60</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="9" t="s">
+      <c r="G41" s="12"/>
+      <c r="H41" s="10" t="s">
         <v>61</v>
       </c>
       <c r="I41" s="11"/>
-      <c r="J41" s="10"/>
+      <c r="J41" s="12"/>
       <c r="K41" s="3">
         <v>2</v>
       </c>
-      <c r="P41" s="9" t="s">
+      <c r="P41" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="9" t="s">
+      <c r="Q41" s="12"/>
+      <c r="R41" s="10" t="s">
         <v>68</v>
       </c>
       <c r="S41" s="11"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="9" t="s">
+      <c r="T41" s="12"/>
+      <c r="U41" s="10" t="s">
         <v>69</v>
       </c>
       <c r="V41" s="11"/>
-      <c r="W41" s="10"/>
+      <c r="W41" s="12"/>
       <c r="X41" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="9" t="s">
+      <c r="G42" s="12"/>
+      <c r="H42" s="10" t="s">
         <v>63</v>
       </c>
       <c r="I42" s="11"/>
-      <c r="J42" s="10"/>
+      <c r="J42" s="12"/>
       <c r="K42" s="3">
         <v>2</v>
       </c>
-      <c r="P42" s="9" t="s">
+      <c r="P42" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="9" t="s">
+      <c r="Q42" s="12"/>
+      <c r="R42" s="10" t="s">
         <v>70</v>
       </c>
       <c r="S42" s="11"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="9" t="s">
+      <c r="T42" s="12"/>
+      <c r="U42" s="10" t="s">
         <v>71</v>
       </c>
       <c r="V42" s="11"/>
-      <c r="W42" s="10"/>
+      <c r="W42" s="12"/>
       <c r="X42" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="12"/>
+      <c r="E43" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F43" s="11"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="9" t="s">
+      <c r="G43" s="12"/>
+      <c r="H43" s="10" t="s">
         <v>65</v>
       </c>
       <c r="I43" s="11"/>
-      <c r="J43" s="10"/>
+      <c r="J43" s="12"/>
       <c r="K43" s="3">
         <v>1</v>
       </c>
-      <c r="P43" s="9" t="s">
+      <c r="P43" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="9" t="s">
+      <c r="Q43" s="12"/>
+      <c r="R43" s="10" t="s">
         <v>72</v>
       </c>
       <c r="S43" s="11"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="9" t="s">
+      <c r="T43" s="12"/>
+      <c r="U43" s="10" t="s">
         <v>73</v>
       </c>
       <c r="V43" s="11"/>
-      <c r="W43" s="10"/>
+      <c r="W43" s="12"/>
       <c r="X43" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="10" t="s">
         <v>66</v>
       </c>
       <c r="F44" s="11"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="9" t="s">
+      <c r="G44" s="12"/>
+      <c r="H44" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I44" s="11"/>
-      <c r="J44" s="10"/>
+      <c r="J44" s="12"/>
       <c r="K44" s="3">
         <v>1</v>
       </c>
-      <c r="P44" s="9" t="s">
+      <c r="P44" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="9" t="s">
+      <c r="Q44" s="12"/>
+      <c r="R44" s="10" t="s">
         <v>11</v>
       </c>
       <c r="S44" s="11"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="9" t="s">
+      <c r="T44" s="12"/>
+      <c r="U44" s="10" t="s">
         <v>12</v>
       </c>
       <c r="V44" s="11"/>
-      <c r="W44" s="10"/>
+      <c r="W44" s="12"/>
       <c r="X44" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="12"/>
+      <c r="E45" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F45" s="11"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="9" t="s">
+      <c r="G45" s="12"/>
+      <c r="H45" s="10" t="s">
         <v>69</v>
       </c>
       <c r="I45" s="11"/>
-      <c r="J45" s="10"/>
+      <c r="J45" s="12"/>
       <c r="K45" s="3">
         <v>1</v>
       </c>
-      <c r="P45" s="9" t="s">
+      <c r="P45" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="9" t="s">
+      <c r="Q45" s="12"/>
+      <c r="R45" s="10" t="s">
         <v>74</v>
       </c>
       <c r="S45" s="11"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="9" t="s">
+      <c r="T45" s="12"/>
+      <c r="U45" s="10" t="s">
         <v>75</v>
       </c>
       <c r="V45" s="11"/>
-      <c r="W45" s="10"/>
+      <c r="W45" s="12"/>
       <c r="X45" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="12"/>
+      <c r="E46" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="9" t="s">
+      <c r="G46" s="12"/>
+      <c r="H46" s="10" t="s">
         <v>71</v>
       </c>
       <c r="I46" s="11"/>
-      <c r="J46" s="10"/>
+      <c r="J46" s="12"/>
       <c r="K46" s="3">
         <v>1</v>
       </c>
-      <c r="P46" s="9" t="s">
+      <c r="P46" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="9" t="s">
+      <c r="Q46" s="12"/>
+      <c r="R46" s="10" t="s">
         <v>76</v>
       </c>
       <c r="S46" s="11"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="9" t="s">
+      <c r="T46" s="12"/>
+      <c r="U46" s="10" t="s">
         <v>77</v>
       </c>
       <c r="V46" s="11"/>
-      <c r="W46" s="10"/>
+      <c r="W46" s="12"/>
       <c r="X46" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="9" t="s">
+      <c r="D47" s="12"/>
+      <c r="E47" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F47" s="11"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="9" t="s">
+      <c r="G47" s="12"/>
+      <c r="H47" s="10" t="s">
         <v>73</v>
       </c>
       <c r="I47" s="11"/>
-      <c r="J47" s="10"/>
+      <c r="J47" s="12"/>
       <c r="K47" s="3">
         <v>1</v>
       </c>
-      <c r="P47" s="9" t="s">
+      <c r="P47" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="9" t="s">
+      <c r="Q47" s="12"/>
+      <c r="R47" s="10" t="s">
         <v>78</v>
       </c>
       <c r="S47" s="11"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="9" t="s">
+      <c r="T47" s="12"/>
+      <c r="U47" s="10" t="s">
         <v>79</v>
       </c>
       <c r="V47" s="11"/>
-      <c r="W47" s="10"/>
+      <c r="W47" s="12"/>
       <c r="X47" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="12"/>
+      <c r="E48" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="11"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="9" t="s">
+      <c r="G48" s="12"/>
+      <c r="H48" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I48" s="11"/>
-      <c r="J48" s="10"/>
+      <c r="J48" s="12"/>
       <c r="K48" s="3">
         <v>2</v>
       </c>
-      <c r="P48" s="9" t="s">
+      <c r="P48" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="9" t="s">
+      <c r="Q48" s="12"/>
+      <c r="R48" s="10" t="s">
         <v>17</v>
       </c>
       <c r="S48" s="11"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="9" t="s">
+      <c r="T48" s="12"/>
+      <c r="U48" s="10" t="s">
         <v>18</v>
       </c>
       <c r="V48" s="11"/>
-      <c r="W48" s="10"/>
+      <c r="W48" s="12"/>
       <c r="X48" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="12"/>
+      <c r="E49" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="9" t="s">
+      <c r="G49" s="12"/>
+      <c r="H49" s="10" t="s">
         <v>75</v>
       </c>
       <c r="I49" s="11"/>
-      <c r="J49" s="10"/>
+      <c r="J49" s="12"/>
       <c r="K49" s="3">
         <v>1</v>
       </c>
-      <c r="P49" s="9" t="s">
+      <c r="P49" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="9" t="s">
+      <c r="Q49" s="12"/>
+      <c r="R49" s="10" t="s">
         <v>20</v>
       </c>
       <c r="S49" s="11"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="9" t="s">
+      <c r="T49" s="12"/>
+      <c r="U49" s="10" t="s">
         <v>21</v>
       </c>
       <c r="V49" s="11"/>
-      <c r="W49" s="10"/>
+      <c r="W49" s="12"/>
       <c r="X49" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="12"/>
+      <c r="E50" s="10" t="s">
         <v>76</v>
       </c>
       <c r="F50" s="11"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="9" t="s">
+      <c r="G50" s="12"/>
+      <c r="H50" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I50" s="11"/>
-      <c r="J50" s="10"/>
+      <c r="J50" s="12"/>
       <c r="K50" s="3">
         <v>2</v>
       </c>
-      <c r="P50" s="9" t="s">
+      <c r="P50" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="9" t="s">
+      <c r="Q50" s="12"/>
+      <c r="R50" s="10" t="s">
         <v>23</v>
       </c>
       <c r="S50" s="11"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="9" t="s">
+      <c r="T50" s="12"/>
+      <c r="U50" s="10" t="s">
         <v>24</v>
       </c>
       <c r="V50" s="11"/>
-      <c r="W50" s="10"/>
+      <c r="W50" s="12"/>
       <c r="X50" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="12"/>
+      <c r="E51" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="11"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="9" t="s">
+      <c r="G51" s="12"/>
+      <c r="H51" s="10" t="s">
         <v>79</v>
       </c>
       <c r="I51" s="11"/>
-      <c r="J51" s="10"/>
+      <c r="J51" s="12"/>
       <c r="K51" s="3">
         <v>2</v>
       </c>
-      <c r="P51" s="9" t="s">
+      <c r="P51" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="9" t="s">
+      <c r="Q51" s="12"/>
+      <c r="R51" s="10" t="s">
         <v>81</v>
       </c>
       <c r="S51" s="11"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="9" t="s">
+      <c r="T51" s="12"/>
+      <c r="U51" s="10" t="s">
         <v>82</v>
       </c>
       <c r="V51" s="11"/>
-      <c r="W51" s="10"/>
+      <c r="W51" s="12"/>
       <c r="X51" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="12"/>
+      <c r="E52" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="11"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="9" t="s">
+      <c r="G52" s="12"/>
+      <c r="H52" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I52" s="11"/>
-      <c r="J52" s="10"/>
+      <c r="J52" s="12"/>
       <c r="K52" s="3">
         <v>5</v>
       </c>
-      <c r="P52" s="9" t="s">
+      <c r="P52" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="9" t="s">
+      <c r="Q52" s="12"/>
+      <c r="R52" s="10" t="s">
         <v>26</v>
       </c>
       <c r="S52" s="11"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="9" t="s">
+      <c r="T52" s="12"/>
+      <c r="U52" s="10" t="s">
         <v>27</v>
       </c>
       <c r="V52" s="11"/>
-      <c r="W52" s="10"/>
+      <c r="W52" s="12"/>
       <c r="X52" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="12"/>
+      <c r="E53" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="11"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="9" t="s">
+      <c r="G53" s="12"/>
+      <c r="H53" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I53" s="11"/>
-      <c r="J53" s="10"/>
+      <c r="J53" s="12"/>
       <c r="K53" s="3">
         <v>1</v>
       </c>
-      <c r="P53" s="9" t="s">
+      <c r="P53" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="9" t="s">
+      <c r="Q53" s="12"/>
+      <c r="R53" s="10" t="s">
         <v>85</v>
       </c>
       <c r="S53" s="11"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="9" t="s">
+      <c r="T53" s="12"/>
+      <c r="U53" s="10" t="s">
         <v>86</v>
       </c>
       <c r="V53" s="11"/>
-      <c r="W53" s="10"/>
+      <c r="W53" s="12"/>
       <c r="X53" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="12"/>
+      <c r="E54" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F54" s="11"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="9" t="s">
+      <c r="G54" s="12"/>
+      <c r="H54" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I54" s="11"/>
-      <c r="J54" s="10"/>
+      <c r="J54" s="12"/>
       <c r="K54" s="3">
         <v>3</v>
       </c>
-      <c r="P54" s="9" t="s">
+      <c r="P54" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="9" t="s">
+      <c r="Q54" s="12"/>
+      <c r="R54" s="10" t="s">
         <v>32</v>
       </c>
       <c r="S54" s="11"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="9" t="s">
+      <c r="T54" s="12"/>
+      <c r="U54" s="10" t="s">
         <v>33</v>
       </c>
       <c r="V54" s="11"/>
-      <c r="W54" s="10"/>
+      <c r="W54" s="12"/>
       <c r="X54" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="12"/>
+      <c r="E55" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="9" t="s">
+      <c r="G55" s="12"/>
+      <c r="H55" s="10" t="s">
         <v>82</v>
       </c>
       <c r="I55" s="11"/>
-      <c r="J55" s="10"/>
+      <c r="J55" s="12"/>
       <c r="K55" s="3">
         <v>1</v>
       </c>
-      <c r="P55" s="9" t="s">
+      <c r="P55" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="9" t="s">
+      <c r="Q55" s="12"/>
+      <c r="R55" s="10" t="s">
         <v>89</v>
       </c>
       <c r="S55" s="11"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="9" t="s">
+      <c r="T55" s="12"/>
+      <c r="U55" s="10" t="s">
         <v>90</v>
       </c>
       <c r="V55" s="11"/>
-      <c r="W55" s="10"/>
+      <c r="W55" s="12"/>
       <c r="X55" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="12"/>
+      <c r="E56" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F56" s="11"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="9" t="s">
+      <c r="G56" s="12"/>
+      <c r="H56" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I56" s="11"/>
-      <c r="J56" s="10"/>
+      <c r="J56" s="12"/>
       <c r="K56" s="3">
         <v>1</v>
       </c>
-      <c r="P56" s="9" t="s">
+      <c r="P56" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="9" t="s">
+      <c r="Q56" s="12"/>
+      <c r="R56" s="10" t="s">
         <v>92</v>
       </c>
       <c r="S56" s="11"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="9" t="s">
+      <c r="T56" s="12"/>
+      <c r="U56" s="10" t="s">
         <v>93</v>
       </c>
       <c r="V56" s="11"/>
-      <c r="W56" s="10"/>
+      <c r="W56" s="12"/>
       <c r="X56" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="12"/>
+      <c r="E57" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F57" s="11"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="9" t="s">
+      <c r="G57" s="12"/>
+      <c r="H57" s="10" t="s">
         <v>86</v>
       </c>
       <c r="I57" s="11"/>
-      <c r="J57" s="10"/>
+      <c r="J57" s="12"/>
       <c r="K57" s="3">
         <v>1</v>
       </c>
-      <c r="P57" s="9" t="s">
+      <c r="P57" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="9" t="s">
+      <c r="Q57" s="12"/>
+      <c r="R57" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S57" s="11"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="9" t="s">
+      <c r="T57" s="12"/>
+      <c r="U57" s="10" t="s">
         <v>39</v>
       </c>
       <c r="V57" s="11"/>
-      <c r="W57" s="10"/>
+      <c r="W57" s="12"/>
       <c r="X57" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="12"/>
+      <c r="E58" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F58" s="11"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="9" t="s">
+      <c r="G58" s="12"/>
+      <c r="H58" s="10" t="s">
         <v>33</v>
       </c>
       <c r="I58" s="11"/>
-      <c r="J58" s="10"/>
+      <c r="J58" s="12"/>
       <c r="K58" s="3">
         <v>2</v>
       </c>
-      <c r="P58" s="9" t="s">
+      <c r="P58" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="9" t="s">
+      <c r="Q58" s="12"/>
+      <c r="R58" s="10" t="s">
         <v>96</v>
       </c>
       <c r="S58" s="11"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="9" t="s">
+      <c r="T58" s="12"/>
+      <c r="U58" s="10" t="s">
         <v>97</v>
       </c>
       <c r="V58" s="11"/>
-      <c r="W58" s="10"/>
+      <c r="W58" s="12"/>
       <c r="X58" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="12"/>
+      <c r="E59" s="10" t="s">
         <v>89</v>
       </c>
       <c r="F59" s="11"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="9" t="s">
+      <c r="G59" s="12"/>
+      <c r="H59" s="10" t="s">
         <v>90</v>
       </c>
       <c r="I59" s="11"/>
-      <c r="J59" s="10"/>
+      <c r="J59" s="12"/>
       <c r="K59" s="3">
         <v>1</v>
       </c>
-      <c r="P59" s="9" t="s">
+      <c r="P59" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="9" t="s">
+      <c r="Q59" s="12"/>
+      <c r="R59" s="10" t="s">
         <v>99</v>
       </c>
       <c r="S59" s="11"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="9" t="s">
+      <c r="T59" s="12"/>
+      <c r="U59" s="10" t="s">
         <v>100</v>
       </c>
       <c r="V59" s="11"/>
-      <c r="W59" s="10"/>
+      <c r="W59" s="12"/>
       <c r="X59" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="9" t="s">
+      <c r="D60" s="12"/>
+      <c r="E60" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F60" s="11"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="9" t="s">
+      <c r="G60" s="12"/>
+      <c r="H60" s="10" t="s">
         <v>93</v>
       </c>
       <c r="I60" s="11"/>
-      <c r="J60" s="10"/>
+      <c r="J60" s="12"/>
       <c r="K60" s="3">
         <v>1</v>
       </c>
-      <c r="P60" s="9" t="s">
+      <c r="P60" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="9" t="s">
+      <c r="Q60" s="12"/>
+      <c r="R60" s="10" t="s">
         <v>44</v>
       </c>
       <c r="S60" s="11"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="9" t="s">
+      <c r="T60" s="12"/>
+      <c r="U60" s="10" t="s">
         <v>45</v>
       </c>
       <c r="V60" s="11"/>
-      <c r="W60" s="10"/>
+      <c r="W60" s="12"/>
       <c r="X60" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="9" t="s">
+      <c r="D61" s="12"/>
+      <c r="E61" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F61" s="11"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="9" t="s">
+      <c r="G61" s="12"/>
+      <c r="H61" s="10" t="s">
         <v>39</v>
       </c>
       <c r="I61" s="11"/>
-      <c r="J61" s="10"/>
+      <c r="J61" s="12"/>
       <c r="K61" s="3">
         <v>4</v>
       </c>
-      <c r="P61" s="9" t="s">
+      <c r="P61" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="9" t="s">
+      <c r="Q61" s="12"/>
+      <c r="R61" s="10" t="s">
         <v>103</v>
       </c>
       <c r="S61" s="11"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="9" t="s">
+      <c r="T61" s="12"/>
+      <c r="U61" s="10" t="s">
         <v>104</v>
       </c>
       <c r="V61" s="11"/>
-      <c r="W61" s="10"/>
+      <c r="W61" s="12"/>
       <c r="X61" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="9" t="s">
+      <c r="D62" s="12"/>
+      <c r="E62" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F62" s="11"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="9" t="s">
+      <c r="G62" s="12"/>
+      <c r="H62" s="10" t="s">
         <v>97</v>
       </c>
       <c r="I62" s="11"/>
-      <c r="J62" s="10"/>
+      <c r="J62" s="12"/>
       <c r="K62" s="3">
         <v>2</v>
       </c>
-      <c r="P62" s="9" t="s">
+      <c r="P62" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="9" t="s">
+      <c r="Q62" s="12"/>
+      <c r="R62" s="10" t="s">
         <v>47</v>
       </c>
       <c r="S62" s="11"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="9" t="s">
+      <c r="T62" s="12"/>
+      <c r="U62" s="10" t="s">
         <v>48</v>
       </c>
       <c r="V62" s="11"/>
-      <c r="W62" s="10"/>
+      <c r="W62" s="12"/>
       <c r="X62" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="9" t="s">
+      <c r="D63" s="12"/>
+      <c r="E63" s="10" t="s">
         <v>99</v>
       </c>
       <c r="F63" s="11"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="9" t="s">
+      <c r="G63" s="12"/>
+      <c r="H63" s="10" t="s">
         <v>100</v>
       </c>
       <c r="I63" s="11"/>
-      <c r="J63" s="10"/>
+      <c r="J63" s="12"/>
       <c r="K63" s="3">
         <v>6</v>
       </c>
-      <c r="P63" s="9" t="s">
+      <c r="P63" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="9" t="s">
+      <c r="Q63" s="12"/>
+      <c r="R63" s="10" t="s">
         <v>50</v>
       </c>
       <c r="S63" s="11"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="9" t="s">
+      <c r="T63" s="12"/>
+      <c r="U63" s="10" t="s">
         <v>51</v>
       </c>
       <c r="V63" s="11"/>
-      <c r="W63" s="10"/>
+      <c r="W63" s="12"/>
       <c r="X63" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="9" t="s">
+      <c r="D64" s="12"/>
+      <c r="E64" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F64" s="11"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="9" t="s">
+      <c r="G64" s="12"/>
+      <c r="H64" s="10" t="s">
         <v>45</v>
       </c>
       <c r="I64" s="11"/>
-      <c r="J64" s="10"/>
+      <c r="J64" s="12"/>
       <c r="K64" s="3">
         <v>1</v>
       </c>
-      <c r="P64" s="9" t="s">
+      <c r="P64" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="9" t="s">
+      <c r="Q64" s="12"/>
+      <c r="R64" s="10" t="s">
         <v>108</v>
       </c>
       <c r="S64" s="11"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="9" t="s">
+      <c r="T64" s="12"/>
+      <c r="U64" s="10" t="s">
         <v>109</v>
       </c>
       <c r="V64" s="11"/>
-      <c r="W64" s="10"/>
+      <c r="W64" s="12"/>
       <c r="X64" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="9" t="s">
+      <c r="D65" s="12"/>
+      <c r="E65" s="10" t="s">
         <v>103</v>
       </c>
       <c r="F65" s="11"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="9" t="s">
+      <c r="G65" s="12"/>
+      <c r="H65" s="10" t="s">
         <v>104</v>
       </c>
       <c r="I65" s="11"/>
-      <c r="J65" s="10"/>
+      <c r="J65" s="12"/>
       <c r="K65" s="3">
         <v>1</v>
       </c>
-      <c r="P65" s="9" t="s">
+      <c r="P65" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="9" t="s">
+      <c r="Q65" s="12"/>
+      <c r="R65" s="10" t="s">
         <v>111</v>
       </c>
       <c r="S65" s="11"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="9" t="s">
+      <c r="T65" s="12"/>
+      <c r="U65" s="10" t="s">
         <v>112</v>
       </c>
       <c r="V65" s="11"/>
-      <c r="W65" s="10"/>
+      <c r="W65" s="12"/>
       <c r="X65" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="9" t="s">
+      <c r="D66" s="12"/>
+      <c r="E66" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F66" s="11"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="9" t="s">
+      <c r="G66" s="12"/>
+      <c r="H66" s="10" t="s">
         <v>48</v>
       </c>
       <c r="I66" s="11"/>
-      <c r="J66" s="10"/>
+      <c r="J66" s="12"/>
       <c r="K66" s="3">
         <v>1</v>
       </c>
-      <c r="P66" s="9" t="s">
+      <c r="P66" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="9" t="s">
+      <c r="Q66" s="12"/>
+      <c r="R66" s="10" t="s">
         <v>114</v>
       </c>
       <c r="S66" s="11"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="9" t="s">
+      <c r="T66" s="12"/>
+      <c r="U66" s="10" t="s">
         <v>115</v>
       </c>
       <c r="V66" s="11"/>
-      <c r="W66" s="10"/>
+      <c r="W66" s="12"/>
       <c r="X66" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="12"/>
+      <c r="E67" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F67" s="11"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="9" t="s">
+      <c r="G67" s="12"/>
+      <c r="H67" s="10" t="s">
         <v>51</v>
       </c>
       <c r="I67" s="11"/>
-      <c r="J67" s="10"/>
+      <c r="J67" s="12"/>
       <c r="K67" s="3">
         <v>2</v>
       </c>
-      <c r="P67" s="9" t="s">
+      <c r="P67" s="10" t="s">
         <v>55</v>
       </c>
       <c r="Q67" s="11"/>
@@ -3465,70 +3468,70 @@
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
-      <c r="W67" s="10"/>
+      <c r="W67" s="12"/>
       <c r="X67" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="68" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="12"/>
+      <c r="E68" s="10" t="s">
         <v>108</v>
       </c>
       <c r="F68" s="11"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="9" t="s">
+      <c r="G68" s="12"/>
+      <c r="H68" s="10" t="s">
         <v>109</v>
       </c>
       <c r="I68" s="11"/>
-      <c r="J68" s="10"/>
+      <c r="J68" s="12"/>
       <c r="K68" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="9" t="s">
+      <c r="D69" s="12"/>
+      <c r="E69" s="10" t="s">
         <v>111</v>
       </c>
       <c r="F69" s="11"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="9" t="s">
+      <c r="G69" s="12"/>
+      <c r="H69" s="10" t="s">
         <v>112</v>
       </c>
       <c r="I69" s="11"/>
-      <c r="J69" s="10"/>
+      <c r="J69" s="12"/>
       <c r="K69" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="9" t="s">
+      <c r="D70" s="12"/>
+      <c r="E70" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F70" s="11"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="9" t="s">
+      <c r="G70" s="12"/>
+      <c r="H70" s="10" t="s">
         <v>115</v>
       </c>
       <c r="I70" s="11"/>
-      <c r="J70" s="10"/>
+      <c r="J70" s="12"/>
       <c r="K70" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D71" s="11"/>
@@ -3537,338 +3540,338 @@
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="10"/>
+      <c r="J71" s="12"/>
       <c r="K71" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="72" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
     </row>
     <row r="73" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
     </row>
     <row r="74" spans="3:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="12" t="s">
+      <c r="D74" s="16"/>
+      <c r="E74" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="14"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="12" t="s">
+      <c r="F74" s="17"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I74" s="14"/>
-      <c r="J74" s="13"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="16"/>
       <c r="K74" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="9" t="s">
+      <c r="D75" s="12"/>
+      <c r="E75" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="11"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="9" t="s">
+      <c r="G75" s="12"/>
+      <c r="H75" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I75" s="11"/>
-      <c r="J75" s="10"/>
+      <c r="J75" s="12"/>
       <c r="K75" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="9" t="s">
+      <c r="D76" s="12"/>
+      <c r="E76" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="11"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="9" t="s">
+      <c r="G76" s="12"/>
+      <c r="H76" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I76" s="11"/>
-      <c r="J76" s="10"/>
+      <c r="J76" s="12"/>
       <c r="K76" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="9" t="s">
+      <c r="D77" s="12"/>
+      <c r="E77" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F77" s="11"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="9" t="s">
+      <c r="G77" s="12"/>
+      <c r="H77" s="10" t="s">
         <v>18</v>
       </c>
       <c r="I77" s="11"/>
-      <c r="J77" s="10"/>
+      <c r="J77" s="12"/>
       <c r="K77" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="9" t="s">
+      <c r="D78" s="12"/>
+      <c r="E78" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F78" s="11"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="9" t="s">
+      <c r="G78" s="12"/>
+      <c r="H78" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I78" s="11"/>
-      <c r="J78" s="10"/>
+      <c r="J78" s="12"/>
       <c r="K78" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="10"/>
-      <c r="E79" s="9" t="s">
+      <c r="D79" s="12"/>
+      <c r="E79" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F79" s="11"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="9" t="s">
+      <c r="G79" s="12"/>
+      <c r="H79" s="10" t="s">
         <v>24</v>
       </c>
       <c r="I79" s="11"/>
-      <c r="J79" s="10"/>
+      <c r="J79" s="12"/>
       <c r="K79" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="9" t="s">
+      <c r="D80" s="12"/>
+      <c r="E80" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F80" s="11"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="9" t="s">
+      <c r="G80" s="12"/>
+      <c r="H80" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I80" s="11"/>
-      <c r="J80" s="10"/>
+      <c r="J80" s="12"/>
       <c r="K80" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="9" t="s">
+      <c r="D81" s="12"/>
+      <c r="E81" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F81" s="11"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="9" t="s">
+      <c r="G81" s="12"/>
+      <c r="H81" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I81" s="11"/>
-      <c r="J81" s="10"/>
+      <c r="J81" s="12"/>
       <c r="K81" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="9" t="s">
+      <c r="D82" s="12"/>
+      <c r="E82" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F82" s="11"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="9" t="s">
+      <c r="G82" s="12"/>
+      <c r="H82" s="10" t="s">
         <v>33</v>
       </c>
       <c r="I82" s="11"/>
-      <c r="J82" s="10"/>
+      <c r="J82" s="12"/>
       <c r="K82" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="9" t="s">
+      <c r="D83" s="12"/>
+      <c r="E83" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F83" s="11"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="9" t="s">
+      <c r="G83" s="12"/>
+      <c r="H83" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I83" s="11"/>
-      <c r="J83" s="10"/>
+      <c r="J83" s="12"/>
       <c r="K83" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="9" t="s">
+      <c r="D84" s="12"/>
+      <c r="E84" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F84" s="11"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="9" t="s">
+      <c r="G84" s="12"/>
+      <c r="H84" s="10" t="s">
         <v>39</v>
       </c>
       <c r="I84" s="11"/>
-      <c r="J84" s="10"/>
+      <c r="J84" s="12"/>
       <c r="K84" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D85" s="10"/>
-      <c r="E85" s="9" t="s">
+      <c r="D85" s="12"/>
+      <c r="E85" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F85" s="11"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="9" t="s">
+      <c r="G85" s="12"/>
+      <c r="H85" s="10" t="s">
         <v>42</v>
       </c>
       <c r="I85" s="11"/>
-      <c r="J85" s="10"/>
+      <c r="J85" s="12"/>
       <c r="K85" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="10"/>
-      <c r="E86" s="9" t="s">
+      <c r="D86" s="12"/>
+      <c r="E86" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F86" s="11"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="9" t="s">
+      <c r="G86" s="12"/>
+      <c r="H86" s="10" t="s">
         <v>45</v>
       </c>
       <c r="I86" s="11"/>
-      <c r="J86" s="10"/>
+      <c r="J86" s="12"/>
       <c r="K86" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="10"/>
-      <c r="E87" s="9" t="s">
+      <c r="D87" s="12"/>
+      <c r="E87" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F87" s="11"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="9" t="s">
+      <c r="G87" s="12"/>
+      <c r="H87" s="10" t="s">
         <v>48</v>
       </c>
       <c r="I87" s="11"/>
-      <c r="J87" s="10"/>
+      <c r="J87" s="12"/>
       <c r="K87" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D88" s="10"/>
-      <c r="E88" s="9" t="s">
+      <c r="D88" s="12"/>
+      <c r="E88" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F88" s="11"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="9" t="s">
+      <c r="G88" s="12"/>
+      <c r="H88" s="10" t="s">
         <v>51</v>
       </c>
       <c r="I88" s="11"/>
-      <c r="J88" s="10"/>
+      <c r="J88" s="12"/>
       <c r="K88" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="9" t="s">
+      <c r="D89" s="12"/>
+      <c r="E89" s="10" t="s">
         <v>53</v>
       </c>
       <c r="F89" s="11"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="9" t="s">
+      <c r="G89" s="12"/>
+      <c r="H89" s="10" t="s">
         <v>54</v>
       </c>
       <c r="I89" s="11"/>
-      <c r="J89" s="10"/>
+      <c r="J89" s="12"/>
       <c r="K89" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D90" s="11"/>
@@ -3877,13 +3880,709 @@
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
-      <c r="J90" s="10"/>
+      <c r="J90" s="12"/>
       <c r="K90" s="3">
         <v>34</v>
       </c>
     </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C91" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C92" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+    </row>
+    <row r="93" spans="3:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+    </row>
+    <row r="94" spans="3:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C94" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="E94" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="17"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="17"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C95" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="12"/>
+      <c r="E95" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="11"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="11"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C96" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="11"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="11"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C97" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="12"/>
+      <c r="E97" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="11"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="11"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C98" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="11"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" s="11"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C99" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="11"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" s="11"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C100" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" s="11"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="11"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C101" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="12"/>
+      <c r="E101" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="11"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I101" s="11"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="12"/>
+      <c r="E102" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" s="11"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I102" s="11"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C103" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103" s="11"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I103" s="11"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C104" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="12"/>
+      <c r="E104" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" s="11"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I104" s="11"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C105" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" s="11"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I105" s="11"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C106" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I106" s="11"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C107" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" s="12"/>
+      <c r="E107" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107" s="11"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I107" s="11"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C108" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F108" s="11"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I108" s="11"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C109" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="12"/>
+      <c r="E109" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F109" s="11"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I109" s="11"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C110" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="3">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="318">
+  <mergeCells count="369">
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="P25:W25"/>
+    <mergeCell ref="P27:X27"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:K73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:J78"/>
     <mergeCell ref="R66:T66"/>
     <mergeCell ref="U66:W66"/>
     <mergeCell ref="P67:W67"/>
@@ -3908,300 +4607,6 @@
     <mergeCell ref="R64:T64"/>
     <mergeCell ref="U64:W64"/>
     <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="U65:W65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C73:K73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="P25:W25"/>
-    <mergeCell ref="P27:X27"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="U57:W57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
